--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -45,17 +45,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,21 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,30 +169,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,52 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,55 +198,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,127 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,17 +392,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,19 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,6 +456,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,30 +489,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -497,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,19 +509,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,112 +530,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,10 +962,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -980,83 +980,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>2</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>16</v>
       </c>
     </row>
@@ -1069,10 +1069,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1087,83 +1087,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>2</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>16</v>
       </c>
     </row>

--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17625" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -45,18 +45,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -67,15 +60,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -91,6 +90,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -101,59 +122,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +153,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,13 +198,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,7 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,55 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,97 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,20 +394,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,6 +416,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -442,24 +440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -471,6 +451,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,16 +509,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,115 +527,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,10 +962,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -980,83 +980,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>1</v>
-      </c>
-    </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
         <v>16</v>
       </c>
     </row>
@@ -1069,10 +1069,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1087,83 +1087,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>1</v>
-      </c>
-    </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
         <v>16</v>
       </c>
     </row>

--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17625" windowHeight="8235" activeTab="1"/>
+    <workbookView windowWidth="17865" windowHeight="10515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>uint32</t>
+  </si>
+  <si>
+    <t>common</t>
   </si>
 </sst>
 </file>
@@ -31,9 +34,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -45,6 +48,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -53,30 +131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,100 +147,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,13 +201,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,169 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,30 +392,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,6 +419,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -451,17 +441,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +468,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -497,10 +500,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,133 +512,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1087,6 +1090,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="7" spans="1:1">
       <c r="A7">
         <v>1</v>

--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17865" windowHeight="10515" activeTab="1"/>
+    <workbookView windowWidth="18105" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,15 +49,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,13 +57,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,6 +71,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -94,7 +101,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -155,31 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,73 +201,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,25 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,79 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +404,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -415,17 +430,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +473,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,10 +500,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +512,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,10 +965,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -983,83 +983,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
         <v>16</v>
       </c>
     </row>
@@ -1072,10 +1072,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1095,83 +1095,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
         <v>16</v>
       </c>
     </row>

--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="scene" sheetId="1" r:id="rId1"/>
-    <sheet name="mainscene" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scene!#REF!</definedName>
@@ -18,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>uint32</t>
-  </si>
-  <si>
-    <t>common</t>
   </si>
 </sst>
 </file>
@@ -34,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -49,6 +45,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -59,6 +62,68 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,6 +135,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -78,115 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,49 +197,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,127 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,30 +388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,7 +425,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +471,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -483,15 +488,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -500,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -512,133 +508,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,116 +1063,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>uint32</t>
+  </si>
+  <si>
+    <t>common</t>
   </si>
 </sst>
 </file>
@@ -31,9 +34,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -44,6 +47,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -52,14 +85,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,6 +100,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -74,7 +115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,15 +123,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,6 +155,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,14 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -127,62 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,31 +200,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,25 +344,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,121 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +391,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,30 +459,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -472,19 +477,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,10 +499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,133 +511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,7 +967,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -979,6 +982,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="1:1">
       <c r="A8">
         <v>1</v>

--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="11100"/>
+    <workbookView windowWidth="18105" windowHeight="11100"/>
   </bookViews>
   <sheets>
-    <sheet name="scene" sheetId="1" r:id="rId1"/>
+    <sheet name="mainscene" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scene!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
@@ -32,28 +24,18 @@
   <si>
     <t>common</t>
   </si>
-  <si>
-    <t>nav_bin_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航网格路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene_nav_bin/main_scene.bin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,21 +44,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,9 +390,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -95,17 +643,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,174 +955,117 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B23"/>
+      <selection activeCell="A8" sqref="A8:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9427BD-EC63-4C42-87E0-4FF4C0278A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ACB8AA-3D84-442D-BCEE-178C5C5B0C92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7710" windowWidth="28800" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ACB8AA-3D84-442D-BCEE-178C5C5B0C92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883BCEC7-327F-4130-9C45-4F17382B0B93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7710" windowWidth="28800" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>dungeon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -351,111 +355,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\turn-based-game\bin\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883BCEC7-327F-4130-9C45-4F17382B0B93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7710" windowWidth="28800" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="scene" sheetId="2" r:id="rId1"/>
+    <sheet name="Scene" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,21 +32,26 @@
     <t>id</t>
   </si>
   <si>
+    <t>dungeon_id</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
     <t>common</t>
   </si>
-  <si>
-    <t>dungeon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,21 +60,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -70,9 +406,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -81,17 +659,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,45 +971,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -395,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -403,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -411,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -419,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -427,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -435,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -443,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -451,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -459,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -467,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>11</v>
       </c>
@@ -475,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -483,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>13</v>
       </c>
@@ -491,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>14</v>
       </c>
@@ -499,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>15</v>
       </c>
@@ -507,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>16</v>
       </c>
@@ -515,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>17</v>
       </c>
@@ -524,8 +1146,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/scene.xlsx
+++ b/bin/config/xlsx/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Scene" sheetId="2" r:id="rId1"/>
@@ -727,7 +727,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -977,13 +977,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1009,25 +1009,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1035,7 +1019,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1043,7 +1027,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1051,7 +1035,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1059,7 +1043,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1067,7 +1051,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1075,7 +1059,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1083,7 +1067,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,7 +1075,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1099,7 +1083,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1107,7 +1091,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1115,7 +1099,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1123,7 +1107,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1131,7 +1115,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1139,9 +1123,25 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>17</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
